--- a/data/Experiment_record_part2.xlsx
+++ b/data/Experiment_record_part2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/howechen/Project/ntu_sd6103_team_project/ntu_sd6103_data_systems_team_project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD05EFF2-77A7-194E-B1DF-F549379EF57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDECD976-38D0-8E40-8078-B05D9F5E1D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{91221B1A-156A-874A-9362-4845446E1592}"/>
+    <workbookView xWindow="10100" yWindow="-19640" windowWidth="29400" windowHeight="17380" xr2:uid="{91221B1A-156A-874A-9362-4845446E1592}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -506,7 +506,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -541,10 +541,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="1">
-        <v>16.8</v>
+        <v>17.5</v>
       </c>
       <c r="D2">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -561,7 +561,7 @@
         <v>1.7</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E3">
         <v>0.46700000000000003</v>
@@ -595,7 +595,7 @@
         <v>23.4</v>
       </c>
       <c r="D5">
-        <v>10.5</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E5">
         <v>5.0999999999999996</v>
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="C6" s="1">
-        <v>23.1</v>
+        <v>24.6</v>
       </c>
       <c r="D6">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="E6">
         <v>1.6</v>
@@ -626,10 +626,10 @@
         <v>17</v>
       </c>
       <c r="C7" s="1">
-        <v>18.600000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="D7">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>1.4</v>
@@ -643,13 +643,13 @@
         <v>18</v>
       </c>
       <c r="C8" s="1">
-        <v>68.900000000000006</v>
+        <v>77.7</v>
       </c>
       <c r="D8">
-        <v>54.6</v>
+        <v>55.8</v>
       </c>
       <c r="E8">
-        <v>28.8</v>
+        <v>28.3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -666,7 +666,7 @@
         <v>17.5</v>
       </c>
       <c r="E9">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/data/Experiment_record_part2.xlsx
+++ b/data/Experiment_record_part2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/howechen/Project/ntu_sd6103_team_project/ntu_sd6103_data_systems_team_project/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Howe's T7/Project/ntu_sd6103_team_project/ntu_sd6103_data_systems_team_project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDECD976-38D0-8E40-8078-B05D9F5E1D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664B3A4E-DD29-7648-8606-BDB0365B2745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10100" yWindow="-19640" windowWidth="29400" windowHeight="17380" xr2:uid="{91221B1A-156A-874A-9362-4845446E1592}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17380" xr2:uid="{91221B1A-156A-874A-9362-4845446E1592}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
